--- a/P4/Graph.xlsx
+++ b/P4/Graph.xlsx
@@ -234,64 +234,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>249</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>389</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>549</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>741</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>974</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1220</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1502</c:v>
+                  <c:v>639</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1839</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2169</c:v>
+                  <c:v>941</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2553</c:v>
+                  <c:v>1095</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2953</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3473</c:v>
+                  <c:v>1434</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3875</c:v>
+                  <c:v>1642</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4366</c:v>
+                  <c:v>1875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4889</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5499</c:v>
+                  <c:v>1972</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6041</c:v>
+                  <c:v>2575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,64 +405,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>328</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>470</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>635</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>830</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1049</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1297</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1592</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1882</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2194</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2603</c:v>
+                  <c:v>832</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3025</c:v>
+                  <c:v>936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3384</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3766</c:v>
+                  <c:v>1205</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4236</c:v>
+                  <c:v>1048</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4708</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5208</c:v>
+                  <c:v>1716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,9 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1587,10 +1585,10 @@
         <v>5000</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,10 +1596,10 @@
         <v>10000</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +1607,10 @@
         <v>15000</v>
       </c>
       <c r="B4">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>124</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +1618,10 @@
         <v>20000</v>
       </c>
       <c r="B5">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="C5">
-        <v>213</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +1629,10 @@
         <v>25000</v>
       </c>
       <c r="B6">
-        <v>389</v>
+        <v>148</v>
       </c>
       <c r="C6">
-        <v>328</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +1640,10 @@
         <v>30000</v>
       </c>
       <c r="B7">
-        <v>549</v>
+        <v>187</v>
       </c>
       <c r="C7">
-        <v>470</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +1651,10 @@
         <v>35000</v>
       </c>
       <c r="B8">
-        <v>741</v>
+        <v>251</v>
       </c>
       <c r="C8">
-        <v>635</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +1662,10 @@
         <v>40000</v>
       </c>
       <c r="B9">
-        <v>974</v>
+        <v>353</v>
       </c>
       <c r="C9">
-        <v>830</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +1673,10 @@
         <v>45000</v>
       </c>
       <c r="B10">
-        <v>1220</v>
+        <v>425</v>
       </c>
       <c r="C10">
-        <v>1049</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +1684,10 @@
         <v>50000</v>
       </c>
       <c r="B11">
-        <v>1502</v>
+        <v>639</v>
       </c>
       <c r="C11">
-        <v>1297</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +1695,10 @@
         <v>55000</v>
       </c>
       <c r="B12">
-        <v>1839</v>
+        <v>776</v>
       </c>
       <c r="C12">
-        <v>1592</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,10 +1706,10 @@
         <v>60000</v>
       </c>
       <c r="B13">
-        <v>2169</v>
+        <v>941</v>
       </c>
       <c r="C13">
-        <v>1882</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1719,10 +1717,10 @@
         <v>65000</v>
       </c>
       <c r="B14">
-        <v>2553</v>
+        <v>1095</v>
       </c>
       <c r="C14">
-        <v>2194</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,10 +1728,10 @@
         <v>70000</v>
       </c>
       <c r="B15">
-        <v>2953</v>
+        <v>1268</v>
       </c>
       <c r="C15">
-        <v>2603</v>
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,10 +1739,10 @@
         <v>75000</v>
       </c>
       <c r="B16">
-        <v>3473</v>
+        <v>1434</v>
       </c>
       <c r="C16">
-        <v>3025</v>
+        <v>936</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,10 +1750,10 @@
         <v>80000</v>
       </c>
       <c r="B17">
-        <v>3875</v>
+        <v>1642</v>
       </c>
       <c r="C17">
-        <v>3384</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1761,10 @@
         <v>85000</v>
       </c>
       <c r="B18">
-        <v>4366</v>
+        <v>1875</v>
       </c>
       <c r="C18">
-        <v>3766</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,10 +1772,10 @@
         <v>90000</v>
       </c>
       <c r="B19">
-        <v>4889</v>
+        <v>1604</v>
       </c>
       <c r="C19">
-        <v>4236</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,10 +1783,10 @@
         <v>95000</v>
       </c>
       <c r="B20">
-        <v>5499</v>
+        <v>1972</v>
       </c>
       <c r="C20">
-        <v>4708</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,10 +1794,10 @@
         <v>100000</v>
       </c>
       <c r="B21">
-        <v>6041</v>
+        <v>2575</v>
       </c>
       <c r="C21">
-        <v>5208</v>
+        <v>1716</v>
       </c>
     </row>
   </sheetData>
